--- a/Capacity_Planning/lib/CaseData - Basic.xlsx
+++ b/Capacity_Planning/lib/CaseData - Basic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="DataTiming" sheetId="29" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Nation n</t>
   </si>
   <si>
-    <t>Customer c</t>
-  </si>
-  <si>
     <t>corporate tax TRn</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   <si>
     <t>tons/year</t>
   </si>
+  <si>
+    <t>facility</t>
+  </si>
 </sst>
 </file>
 
@@ -245,7 +245,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -378,36 +378,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -858,7 +837,7 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -871,70 +850,70 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>250</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>0.999</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <f>3*4</f>
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="18">
         <v>1000000</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="19">
         <f>B5*B3+B7</f>
@@ -943,16 +922,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="18">
         <v>500000</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="19">
         <f>B6*B4+B8</f>
@@ -961,50 +940,50 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="18">
         <v>10000000</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="18">
         <v>5000000</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="18">
         <v>20000000</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <f>200+B10</f>
@@ -1013,14 +992,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <f>250*300</f>
         <v>75000</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1033,10 +1012,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,7 +1030,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6">
@@ -1059,42 +1038,42 @@
         <v>75000</v>
       </c>
       <c r="D1" s="6">
-        <f>SUM(D3:D6)</f>
-        <v>36000</v>
+        <f>SUM(D3:D4)</f>
+        <v>34500</v>
       </c>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C3" s="10">
         <f>B3*$C$1</f>
-        <v>22500</v>
+        <v>30000</v>
       </c>
       <c r="D3" s="20">
         <f>C3*E3</f>
-        <v>15749.999999999998</v>
+        <v>21000</v>
       </c>
       <c r="E3" s="10">
         <v>0.7</v>
@@ -1102,59 +1081,21 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" s="10">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C4" s="10">
-        <f t="shared" ref="C4:C6" si="0">B4*$C$1</f>
-        <v>15000</v>
+        <f t="shared" ref="C4" si="0">B4*$C$1</f>
+        <v>45000</v>
       </c>
       <c r="D4" s="20">
-        <f t="shared" ref="D4:D6" si="1">C4*E4</f>
-        <v>4500</v>
+        <f t="shared" ref="D4" si="1">C4*E4</f>
+        <v>13500</v>
       </c>
       <c r="E4" s="10">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="C5" s="10">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="D5" s="20">
-        <f t="shared" si="1"/>
-        <v>12000</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="10">
-        <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="D6" s="20">
-        <f t="shared" si="1"/>
-        <v>3750</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1121,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="13">
         <v>21</v>
@@ -1286,7 +1227,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -1443,7 +1384,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -1572,7 +1513,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -1709,7 +1650,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -1840,7 +1781,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -1971,7 +1912,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12">
         <v>8</v>
@@ -2079,7 +2020,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -2216,7 +2157,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -2341,7 +2282,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2351,7 +2292,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -2368,7 +2309,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2385,7 +2326,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -2402,19 +2343,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2646,7 +2587,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="13">
         <v>1</v>
@@ -2876,7 +2817,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -3129,7 +3070,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -3448,7 +3389,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -3767,43 +3708,43 @@
         <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="17">
         <v>300000000</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="17">
         <v>50000000</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3897,7 +3838,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -4224,19 +4165,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/Capacity_Planning/lib/CaseData - Basic.xlsx
+++ b/Capacity_Planning/lib/CaseData - Basic.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\GitHub\OSCMSeminarProcessIndustry\Capacity_Planning\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniawiggert/Documents/GitHub/OSCMSeminarProcessIndustry/Capacity_Planning/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="7"/>
   </bookViews>
   <sheets>
     <sheet name="DataTiming" sheetId="29" r:id="rId1"/>
@@ -33,9 +33,15 @@
     <sheet name="CIF7sf" sheetId="25" r:id="rId19"/>
     <sheet name="IDisf" sheetId="26" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -333,16 +339,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -383,8 +389,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -832,23 +838,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -865,7 +871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -879,7 +885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -890,7 +896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -902,7 +908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -920,7 +926,7 @@
         <v>260000000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -938,7 +944,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -949,7 +955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -960,7 +966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -971,17 +977,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -990,7 +996,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1009,26 +1015,26 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="10"/>
+    <col min="1" max="1" width="10.83203125" style="10"/>
     <col min="2" max="2" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="10"/>
+    <col min="4" max="4" width="25.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +1049,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>11</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>12</v>
       </c>
@@ -1105,7 +1111,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
@@ -1114,12 +1120,12 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>6</v>
       </c>
@@ -1206,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
@@ -1215,17 +1221,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
-    <col min="2" max="14" width="10.77734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="2"/>
-    <col min="17" max="17" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="4" customWidth="1"/>
+    <col min="2" max="14" width="10.83203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="2"/>
+    <col min="17" max="17" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1259,7 +1265,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1283,27 +1289,27 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1349,12 +1355,12 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1366,7 +1372,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K9"/>
@@ -1375,14 +1381,14 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>9</v>
       </c>
@@ -1420,7 +1426,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -1441,13 +1447,13 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="E5" s="11"/>
@@ -1456,7 +1462,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
       <c r="H6" s="2"/>
@@ -1464,7 +1470,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="H7" s="2"/>
@@ -1472,7 +1478,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="E8" s="11"/>
       <c r="H8" s="2"/>
@@ -1480,7 +1486,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="11"/>
       <c r="E9" s="11"/>
       <c r="H9" s="2"/>
@@ -1495,7 +1501,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K9"/>
@@ -1504,14 +1510,14 @@
       <selection activeCell="F1" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>9</v>
       </c>
@@ -1553,7 +1559,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -1578,13 +1584,13 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="E5" s="11"/>
@@ -1593,7 +1599,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
       <c r="H6" s="2"/>
@@ -1601,7 +1607,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="H7" s="2"/>
@@ -1609,7 +1615,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="E8" s="11"/>
       <c r="H8" s="2"/>
@@ -1617,7 +1623,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="11"/>
       <c r="E9" s="11"/>
       <c r="H9" s="2"/>
@@ -1632,7 +1638,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K8"/>
@@ -1641,14 +1647,14 @@
       <selection activeCell="F1" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>9</v>
       </c>
@@ -1690,7 +1696,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -1715,7 +1721,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="E4" s="11"/>
@@ -1724,7 +1730,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="11"/>
       <c r="E5" s="11"/>
       <c r="H5" s="2"/>
@@ -1732,7 +1738,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
       <c r="H6" s="2"/>
@@ -1740,7 +1746,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="H7" s="2"/>
@@ -1748,7 +1754,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="E8" s="11"/>
       <c r="H8" s="2"/>
@@ -1763,7 +1769,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K8"/>
@@ -1772,14 +1778,14 @@
       <selection activeCell="F1" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -1796,7 +1802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>9</v>
       </c>
@@ -1821,7 +1827,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -1846,7 +1852,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="E4" s="11"/>
@@ -1855,7 +1861,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="11"/>
       <c r="E5" s="11"/>
       <c r="H5" s="2"/>
@@ -1863,7 +1869,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
       <c r="H6" s="2"/>
@@ -1871,7 +1877,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="H7" s="2"/>
@@ -1879,7 +1885,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="E8" s="11"/>
       <c r="H8" s="2"/>
@@ -1894,7 +1900,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
@@ -1903,14 +1909,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.77734375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.83203125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2002,7 +2008,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K9"/>
@@ -2011,14 +2017,14 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>9</v>
       </c>
@@ -2060,7 +2066,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -2085,13 +2091,13 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="E5" s="11"/>
@@ -2100,7 +2106,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
       <c r="H6" s="2"/>
@@ -2108,7 +2114,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="H7" s="2"/>
@@ -2116,7 +2122,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="E8" s="11"/>
       <c r="H8" s="2"/>
@@ -2124,7 +2130,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="11"/>
       <c r="E9" s="11"/>
       <c r="H9" s="2"/>
@@ -2139,7 +2145,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K9"/>
@@ -2148,14 +2154,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>9</v>
       </c>
@@ -2197,7 +2203,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -2222,13 +2228,13 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="E5" s="11"/>
@@ -2237,7 +2243,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
       <c r="H6" s="2"/>
@@ -2245,7 +2251,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="H7" s="2"/>
@@ -2253,7 +2259,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="E8" s="11"/>
       <c r="H8" s="2"/>
@@ -2261,7 +2267,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="11"/>
       <c r="E9" s="11"/>
       <c r="H9" s="2"/>
@@ -2276,7 +2282,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E17"/>
@@ -2285,12 +2291,12 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="11.5546875" style="1"/>
+    <col min="1" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -2511,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -2569,7 +2575,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:I7"/>
@@ -2578,14 +2584,14 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="13"/>
-    <col min="2" max="9" width="8.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="2" max="9" width="8.83203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2701,7 +2707,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>9</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>10</v>
       </c>
@@ -2795,7 +2801,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
@@ -2804,18 +2810,18 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="5"/>
-    <col min="2" max="6" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="6" width="10.83203125" style="3"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="3"/>
+    <col min="11" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2849,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2866,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2985,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3002,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3019,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3048,7 +3054,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
@@ -3057,18 +3063,18 @@
       <selection activeCell="A4" sqref="A4:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="5"/>
-    <col min="2" max="9" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="9" width="10.83203125" style="3"/>
     <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="3"/>
+    <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -3090,7 +3096,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3112,7 +3118,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3134,7 +3140,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3156,7 +3162,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3178,7 +3184,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3200,7 +3206,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3222,7 +3228,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3244,7 +3250,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3266,7 +3272,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3288,7 +3294,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3310,7 +3316,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3332,7 +3338,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3367,7 +3373,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
@@ -3376,18 +3382,18 @@
       <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="5"/>
-    <col min="2" max="9" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="9" width="10.83203125" style="3"/>
     <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="3"/>
+    <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -3409,7 +3415,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3431,7 +3437,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3453,7 +3459,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3475,7 +3481,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3497,7 +3503,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3519,7 +3525,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3541,7 +3547,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3563,7 +3569,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3585,7 +3591,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3607,7 +3613,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3629,7 +3635,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3651,7 +3657,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3685,7 +3691,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
@@ -3694,13 +3700,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3714,7 +3720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3725,7 +3731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3736,7 +3742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3755,7 +3761,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
@@ -3764,12 +3770,12 @@
       <selection activeCell="F30" sqref="F30:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3777,7 +3783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3793,7 +3799,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3816,7 +3822,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
@@ -3825,18 +3831,18 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="5"/>
-    <col min="2" max="9" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="9" width="10.83203125" style="3"/>
     <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="3"/>
+    <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -3858,7 +3864,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3880,7 +3886,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3902,7 +3908,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3924,7 +3930,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3946,7 +3952,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3968,7 +3974,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3990,7 +3996,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4012,7 +4018,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4034,7 +4040,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4056,7 +4062,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4078,7 +4084,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4100,7 +4106,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4134,7 +4140,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:E9"/>
@@ -4143,27 +4149,27 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="4"/>
-    <col min="2" max="2" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="2"/>
+    <col min="4" max="4" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="2"/>
-    <col min="12" max="12" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="2"/>
-    <col min="16" max="16" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="2"/>
+    <col min="11" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="2"/>
+    <col min="16" max="16" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4180,7 +4186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4197,7 +4203,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4231,7 +4237,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4265,7 +4271,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4282,7 +4288,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4299,7 +4305,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
